--- a/green/Aula 3/Dados/VeiculosXFabricantes.xlsx
+++ b/green/Aula 3/Dados/VeiculosXFabricantes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noturno\Desktop\Dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel Barreto\Documents\GitHub\powerbi\green\Aula 3\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522221C1-3785-465F-B05F-879DAF70872B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dVeiculos" sheetId="1" r:id="rId1"/>
@@ -195,9 +196,6 @@
     <t>Indian</t>
   </si>
   <si>
-    <t>https://az58332.vo.msecnd.net/e88dd2e9fff747f090c792316c22131c/Images/Products10784-1200x1200--819276115.jpg</t>
-  </si>
-  <si>
     <t>https://a-static.mlcdn.com.br/618x463/adesivo-resinado-logo-harley-davidson-moto-carro-notebook-sportinox/route99/2613/085bd5218e37e7a0073f4d58a56a38c6.jpg</t>
   </si>
   <si>
@@ -226,12 +224,15 @@
   </si>
   <si>
     <t>https://motorcycle-logos.com/wp-content/uploads/2016/10/Honda-motorcycle-logo.png</t>
+  </si>
+  <si>
+    <t>https://motorcycle-logos.com/wp-content/uploads/2016/10/Logo-Yamaha.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -543,7 +544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -1115,7 +1116,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
@@ -1127,7 +1128,7 @@
         <v>18000</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -1138,7 +1139,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
@@ -1150,7 +1151,7 @@
         <v>26000</v>
       </c>
       <c r="F26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G26">
         <v>6</v>
@@ -1162,11 +1163,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,7 +1194,7 @@
         <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1204,7 +1205,7 @@
         <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1215,7 +1216,7 @@
         <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1226,7 +1227,7 @@
         <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1237,7 +1238,7 @@
         <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1245,10 +1246,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
